--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_11-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_11-21.xlsx
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>10:1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
@@ -924,11 +918,11 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -944,17 +938,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -962,7 +956,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -970,13 +964,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -1002,11 +996,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1028,11 +1022,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.5</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1054,11 +1048,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>11</v>
+        <v>332</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1080,11 +1074,11 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>332</v>
+        <v>23</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1106,11 +1100,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>23</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.25</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1126,17 +1120,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>169.19999999999999</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1144,7 +1138,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1152,13 +1146,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>73.319999999999993</v>
+        <v>116</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1170,7 +1164,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1178,17 +1172,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1196,7 +1190,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1204,17 +1198,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1230,17 +1224,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1248,7 +1242,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1256,77 +1250,51 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="A25" s="6">
-        <v>22</v>
-      </c>
-      <c t="s" r="B25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="K25" s="11">
+        <v>1380.0999999999999</v>
+      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="12">
         <v>42</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c t="s" r="H25" s="8">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c t="s" r="F26" s="13">
         <v>43</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9">
-        <v>4</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="K26" s="11">
-        <v>1494.0999999999999</v>
-      </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="12">
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c t="s" r="I26" s="15">
         <v>44</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c t="s" r="F27" s="13">
-        <v>45</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c t="s" r="I27" s="15">
-        <v>46</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="74">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1397,13 +1365,10 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I26:N26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
